--- a/SEO Checklist.xlsx
+++ b/SEO Checklist.xlsx
@@ -1146,7 +1146,9 @@
       <c r="C37" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="28"/>
+      <c r="D37" s="28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="31" t="s">
@@ -1158,7 +1160,9 @@
       <c r="C38" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="31" t="s">
@@ -1170,7 +1174,9 @@
       <c r="C39" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
@@ -1182,7 +1188,9 @@
       <c r="C40" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="28"/>
+      <c r="D40" s="28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="31" t="s">
@@ -1194,7 +1202,9 @@
       <c r="C41" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="31" t="s">
@@ -1206,7 +1216,9 @@
       <c r="C42" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="35"/>
+      <c r="D42" s="35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="31" t="s">
@@ -1218,7 +1230,9 @@
       <c r="C43" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="28"/>
+      <c r="D43" s="28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="31" t="s">
@@ -1230,7 +1244,9 @@
       <c r="C44" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="28"/>
+      <c r="D44" s="28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="36"/>
